--- a/data_year/zb/卫生/乡镇卫生院医疗服务情况.xlsx
+++ b/data_year/zb/卫生/乡镇卫生院医疗服务情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,400 +458,229 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1708.3335</v>
+        <v>3630.3802</v>
       </c>
       <c r="C2" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="D2" t="n">
-        <v>33.2</v>
+        <v>59.04</v>
       </c>
       <c r="E2" t="n">
-        <v>8.24</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1700</v>
+        <v>3448.7819</v>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>5.5832211584</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3</v>
+        <v>58.1221390051</v>
       </c>
       <c r="E3" t="n">
-        <v>8.24</v>
+        <v>8.6649846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1625</v>
+        <v>3907.5111</v>
       </c>
       <c r="C4" t="n">
-        <v>3.99</v>
+        <v>5.6774524306</v>
       </c>
       <c r="D4" t="n">
-        <v>34.72</v>
+        <v>62.0733701682</v>
       </c>
       <c r="E4" t="n">
-        <v>7.1</v>
+        <v>9.67577839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1608</v>
+        <v>3937.1515</v>
       </c>
       <c r="C5" t="n">
-        <v>4.21</v>
+        <v>5.9213364129</v>
       </c>
       <c r="D5" t="n">
-        <v>36.24</v>
+        <v>62.833169106</v>
       </c>
       <c r="E5" t="n">
-        <v>6.91</v>
+        <v>10.07127372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1599</v>
+        <v>3732.6053</v>
       </c>
       <c r="C6" t="n">
-        <v>4.43</v>
+        <v>6.2671714911</v>
       </c>
       <c r="D6" t="n">
-        <v>37.14</v>
+        <v>60.4960206459</v>
       </c>
       <c r="E6" t="n">
-        <v>6.81</v>
+        <v>10.28659132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1621.9215</v>
+        <v>3676.0562</v>
       </c>
       <c r="C7" t="n">
-        <v>4.63</v>
+        <v>6.4</v>
       </c>
       <c r="D7" t="n">
-        <v>37.7</v>
+        <v>59.9</v>
       </c>
       <c r="E7" t="n">
-        <v>6.79</v>
+        <v>10.54643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1836.0548</v>
+        <v>3799.9415</v>
       </c>
       <c r="C8" t="n">
-        <v>4.62</v>
+        <v>6.4</v>
       </c>
       <c r="D8" t="n">
-        <v>39.35</v>
+        <v>60.6</v>
       </c>
       <c r="E8" t="n">
-        <v>7.01</v>
+        <v>10.8233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2662.1542</v>
+        <v>4047.1701</v>
       </c>
       <c r="C9" t="n">
-        <v>4.817871131</v>
+        <v>6.31</v>
       </c>
       <c r="D9" t="n">
-        <v>48.4043234205</v>
+        <v>61.31</v>
       </c>
       <c r="E9" t="n">
-        <v>7.58558682</v>
+        <v>11.10755527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3312.7226</v>
+        <v>3985.0865</v>
       </c>
       <c r="C10" t="n">
-        <v>4.4355387637</v>
+        <v>6.4</v>
       </c>
       <c r="D10" t="n">
-        <v>55.8174670378</v>
+        <v>59.6</v>
       </c>
       <c r="E10" t="n">
-        <v>8.26800671</v>
+        <v>11.15957673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3807.7222</v>
+        <v>3909.3858</v>
       </c>
       <c r="C11" t="n">
-        <v>4.7909529528</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="n">
-        <v>60.7036175121</v>
+        <v>57.51</v>
       </c>
       <c r="E11" t="n">
-        <v>8.766082320000001</v>
+        <v>11.74536483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3630.3802</v>
+        <v>3383.3457</v>
       </c>
       <c r="C12" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="D12" t="n">
-        <v>59.04</v>
+        <v>50.4</v>
       </c>
       <c r="E12" t="n">
-        <v>8.74</v>
+        <v>10.95162704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3448.7819</v>
+        <v>3223.0022</v>
       </c>
       <c r="C13" t="n">
-        <v>5.5832211584</v>
+        <v>6.6</v>
       </c>
       <c r="D13" t="n">
-        <v>58.1221390051</v>
+        <v>48.17</v>
       </c>
       <c r="E13" t="n">
-        <v>8.6649846</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3907.5111</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.6774524306</v>
-      </c>
-      <c r="D14" t="n">
-        <v>62.0733701682</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.67577839</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3937.1515</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.9213364129</v>
-      </c>
-      <c r="D15" t="n">
-        <v>62.833169106</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.07127372</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3732.6053</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.2671714911</v>
-      </c>
-      <c r="D16" t="n">
-        <v>60.4960206459</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10.28659132</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3676.0562</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10.54643</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3799.9415</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.8233</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4047.1701</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D19" t="n">
-        <v>61.31</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11.10755527</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3985.0865</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11.15957673</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3909.3858</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>57.51</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11.74536483</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3383.3457</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.95162704</v>
+        <v>11.6064192</v>
       </c>
     </row>
   </sheetData>
